--- a/Planning/Common Garden Protocol.xlsx
+++ b/Planning/Common Garden Protocol.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/wildhellgarden/Planning/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="2420" windowWidth="26180" windowHeight="20760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="12940" windowHeight="13240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -20,18 +15,18 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="235">
   <si>
     <t>Common Garden Protocol</t>
   </si>
@@ -724,13 +719,25 @@
   </si>
   <si>
     <t>BETALL10</t>
+  </si>
+  <si>
+    <t>*1Y, 1N, 1RB, 1?</t>
+  </si>
+  <si>
+    <t>*2RB, 2?</t>
+  </si>
+  <si>
+    <t>2 + *</t>
+  </si>
+  <si>
+    <t>3 RB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,8 +762,30 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,6 +795,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,10 +832,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -792,8 +849,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1134,9 +1199,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1209,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1152,7 +1217,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1160,107 +1225,107 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1272,6 +1337,11 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1279,13 +1349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1314,7 +1384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1737,7 +1807,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1745,16 +1822,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1771,7 +1848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1788,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1805,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1822,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1839,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1856,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1873,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1890,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1907,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1924,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1941,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1992,7 +2069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2026,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2043,7 +2120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2060,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2077,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2094,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2111,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2128,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2145,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2179,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2196,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2213,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2230,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2247,7 +2324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2264,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2281,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2298,7 +2375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2315,7 +2392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2332,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2349,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2366,7 +2443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2383,7 +2460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2400,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2417,7 +2494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2434,7 +2511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2451,7 +2528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2468,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2485,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2502,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2519,7 +2596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -2536,7 +2613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2553,7 +2630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2570,7 +2647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2587,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2604,7 +2681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -2621,7 +2698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -2638,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2655,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2672,7 +2749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2689,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2706,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -2723,7 +2800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -2740,7 +2817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2757,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -2774,7 +2851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -2791,7 +2868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -2808,7 +2885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2825,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2842,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -2859,7 +2936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2876,7 +2953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -2893,7 +2970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -2910,7 +2987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -2927,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -2944,7 +3021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -2961,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -2978,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -2995,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -3012,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -3029,7 +3106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -3046,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -3063,7 +3140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -3080,7 +3157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -3097,7 +3174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -3114,7 +3191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -3131,7 +3208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -3148,7 +3225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -3165,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -3182,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -3199,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -3216,7 +3293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -3233,7 +3310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -3250,7 +3327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -3267,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>128</v>
       </c>
@@ -3284,7 +3361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -3301,7 +3378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -3318,7 +3395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -3335,7 +3412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -3352,7 +3429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -3369,7 +3446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -3386,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>132</v>
       </c>
@@ -3403,7 +3480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -3420,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>134</v>
       </c>
@@ -3437,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3454,7 +3531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -3471,7 +3548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -3488,7 +3565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -3505,7 +3582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -3522,7 +3599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -3539,7 +3616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -3556,7 +3633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -3573,7 +3650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>146</v>
       </c>
@@ -3590,7 +3667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -3607,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -3624,7 +3701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -3641,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -3658,7 +3735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -3675,7 +3752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -3692,7 +3769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -3709,7 +3786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>148</v>
       </c>
@@ -3726,7 +3803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -3743,7 +3820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -3760,7 +3837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>151</v>
       </c>
@@ -3777,7 +3854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -3794,7 +3871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>153</v>
       </c>
@@ -3811,7 +3888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -3828,7 +3905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3845,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -3862,7 +3939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>148</v>
       </c>
@@ -3879,7 +3956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -3896,7 +3973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>147</v>
       </c>
@@ -3913,7 +3990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -3930,7 +4007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>156</v>
       </c>
@@ -3947,7 +4024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -3964,7 +4041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -3981,7 +4058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -3998,7 +4075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -4015,7 +4092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -4032,7 +4109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -4049,7 +4126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -4066,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -4083,7 +4160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -4100,7 +4177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -4117,7 +4194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -4134,7 +4211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -4151,7 +4228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -4168,7 +4245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -4185,7 +4262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>166</v>
       </c>
@@ -4202,7 +4279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -4219,7 +4296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -4236,7 +4313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -4253,7 +4330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -4270,7 +4347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -4287,7 +4364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -4304,7 +4381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -4321,7 +4398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -4338,7 +4415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>175</v>
       </c>
@@ -4355,7 +4432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4372,7 +4449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -4389,7 +4466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -4406,7 +4483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -4423,7 +4500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>177</v>
       </c>
@@ -4440,7 +4517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -4457,7 +4534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4474,7 +4551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -4497,7 +4574,14 @@
     <sortCondition ref="B2:B163"/>
     <sortCondition ref="A2:A163"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4509,9 +4593,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -4522,7 +4606,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4533,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4544,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4555,7 +4639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4566,7 +4650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4577,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4588,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4599,7 +4683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4610,7 +4694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4621,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4632,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4643,7 +4727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4654,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4665,7 +4749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4676,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4687,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4698,7 +4782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4709,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4720,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4731,7 +4815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4742,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4753,7 +4837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4764,7 +4848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4775,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -4786,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -4797,7 +4881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -4808,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4819,7 +4903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4830,7 +4914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -4841,7 +4925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4852,7 +4936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -4863,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -4874,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4885,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4896,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -4907,7 +4991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4918,7 +5002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4929,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -4940,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -4951,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -4962,7 +5046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -4973,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -4984,7 +5068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -4995,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -5006,7 +5090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -5017,7 +5101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -5028,7 +5112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5039,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -5052,17 +5136,284 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="D8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18">
+        <f>SUM(B2:B15)</f>
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C2,C4:C17)</f>
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D3:D7,D9:D12,D14:D17)</f>
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <f>SUM(E4,E8,E10:E11,E17,2)</f>
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <f>SUM(B18:E18)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="F19">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Planning/Common Garden Protocol.xlsx
+++ b/Planning/Common Garden Protocol.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="237">
   <si>
     <t>Common Garden Protocol</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t>3 RB</t>
+  </si>
+  <si>
+    <t>From RB</t>
+  </si>
+  <si>
+    <t>From GH</t>
   </si>
 </sst>
 </file>
@@ -5146,10 +5152,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5404,6 +5410,18 @@
     <row r="19" spans="1:6">
       <c r="F19">
         <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Common Garden Protocol.xlsx
+++ b/Planning/Common Garden Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="12940" windowHeight="13240" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="16540" windowHeight="13400" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="246">
   <si>
     <t>Common Garden Protocol</t>
   </si>
@@ -737,6 +737,33 @@
   </si>
   <si>
     <t>From GH</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Sambucus mp</t>
+  </si>
+  <si>
+    <t>05&amp;06</t>
+  </si>
+  <si>
+    <t>01?</t>
+  </si>
+  <si>
+    <t>04,06&amp;08</t>
+  </si>
+  <si>
+    <t>RB,09-y; ?</t>
+  </si>
+  <si>
+    <t>1 WM</t>
+  </si>
+  <si>
+    <t>3 GR; 2 SH</t>
+  </si>
+  <si>
+    <t>1 of 2 SH</t>
   </si>
 </sst>
 </file>
@@ -838,8 +865,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -860,11 +889,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5152,15 +5183,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
@@ -5176,8 +5207,23 @@
       <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5187,8 +5233,17 @@
       <c r="C2" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5204,8 +5259,20 @@
       <c r="F3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5221,8 +5288,17 @@
       <c r="E4" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5235,8 +5311,14 @@
       <c r="E5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -5246,8 +5328,14 @@
       <c r="C6" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5260,8 +5348,14 @@
       <c r="E7" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5272,8 +5366,14 @@
       <c r="E8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5286,8 +5386,14 @@
       <c r="D9" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5300,8 +5406,17 @@
       <c r="E10" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>237</v>
+      </c>
+      <c r="N10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -5312,8 +5427,14 @@
       <c r="E11" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -5323,8 +5444,14 @@
       <c r="D12" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5334,8 +5461,11 @@
       <c r="E13" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -5347,8 +5477,14 @@
         <v>6</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -5362,16 +5498,25 @@
         <v>6</v>
       </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -5384,8 +5529,14 @@
       <c r="E17" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="B18">
         <f>SUM(B2:B15)</f>
         <v>46</v>
@@ -5407,18 +5558,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:14">
       <c r="F19">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:14">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>236</v>

--- a/Planning/Common Garden Protocol.xlsx
+++ b/Planning/Common Garden Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="0" windowWidth="16540" windowHeight="13400" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2980" yWindow="0" windowWidth="16540" windowHeight="13400" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="247">
   <si>
     <t>Common Garden Protocol</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>1 of 2 SH</t>
+  </si>
+  <si>
+    <t>2 WM</t>
   </si>
 </sst>
 </file>
@@ -5186,7 +5189,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5426,6 +5429,9 @@
       <c r="D11" s="3"/>
       <c r="E11" s="7">
         <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>246</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>12</v>

--- a/Planning/Common Garden Protocol.xlsx
+++ b/Planning/Common Garden Protocol.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/wildhellgarden/Planning/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="16540" windowHeight="13400" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2980" yWindow="0" windowWidth="16540" windowHeight="13400" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,13 +13,13 @@
     <sheet name="Inds per Sp" sheetId="5" r:id="rId4"/>
     <sheet name="Next Steps" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -889,13 +884,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1244,133 +1239,133 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1382,6 +1377,11 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1393,9 +1393,9 @@
       <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1850,6 +1850,11 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1861,12 +1866,12 @@
       <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1900,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2053,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2121,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2138,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2257,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2291,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2308,7 +2313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2376,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2393,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2461,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2580,7 +2585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -2648,7 +2653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2818,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -2903,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -2971,7 +2976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2988,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -3005,7 +3010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -3175,7 +3180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -3192,7 +3197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -3243,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -3311,7 +3316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>128</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -3447,7 +3452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -3464,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -3498,7 +3503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>132</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>134</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>137</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -3651,7 +3656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>146</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -3719,7 +3724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>148</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -3872,7 +3877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>151</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>153</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -3940,7 +3945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -3974,7 +3979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>148</v>
       </c>
@@ -3991,7 +3996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -4008,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>147</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>156</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -4093,7 +4098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -4110,7 +4115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -4246,7 +4251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>166</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -4365,7 +4370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -4382,7 +4387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>175</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -4484,7 +4489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -4501,7 +4506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>177</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -4569,7 +4574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -4586,7 +4591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -4612,6 +4617,11 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4623,9 +4633,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4658,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4691,7 +4701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4702,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4713,7 +4723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4724,7 +4734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4735,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4757,7 +4767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4768,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4801,7 +4811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4812,7 +4822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4823,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4834,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4845,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4856,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -4900,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -4911,7 +4921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -4922,7 +4932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4944,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4966,7 +4976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -4977,7 +4987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -4988,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4999,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -5054,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -5087,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -5109,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -5131,7 +5141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -5142,7 +5152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5153,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -5166,6 +5176,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5174,48 +5189,48 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>6</v>
       </c>
       <c r="C2" s="5">
@@ -5231,17 +5246,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>233</v>
       </c>
       <c r="F3" t="s">
@@ -5260,11 +5275,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>6</v>
       </c>
       <c r="C4" s="5">
@@ -5273,7 +5288,7 @@
       <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -5286,7 +5301,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5306,11 +5321,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
       <c r="C6" s="5">
@@ -5323,7 +5338,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5333,7 +5348,7 @@
       <c r="D7" s="5">
         <v>6</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>6</v>
       </c>
       <c r="G7" t="s">
@@ -5343,12 +5358,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>234</v>
       </c>
       <c r="E8" s="5">
@@ -5361,11 +5376,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="5">
@@ -5381,17 +5396,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -5404,15 +5419,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>6</v>
       </c>
       <c r="G11" t="s">
@@ -5425,7 +5440,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -5442,25 +5457,25 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>17</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>6</v>
       </c>
       <c r="C14" s="3"/>
@@ -5475,11 +5490,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>6</v>
       </c>
       <c r="C15" s="5">
@@ -5496,7 +5511,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -5517,7 +5532,7 @@
       <c r="D17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -5527,7 +5542,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="B18">
         <f>SUM(B2:B15)</f>
         <v>46</v>
@@ -5549,18 +5564,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="F19">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>236</v>
@@ -5570,5 +5585,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>